--- a/src/assets/Test-Reporte_Elanco/Eficacia.xlsx
+++ b/src/assets/Test-Reporte_Elanco/Eficacia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catta\Desktop\Test-Reporte_Elanco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catta\Documents\COMPSCI\repos\elanco-infome-imvixa\src\assets\Test-Reporte_Elanco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C97E83-9D87-40F9-98FF-ADF65A43250C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DB04BB-84DB-4CD4-91A0-2CB0D1AB5776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="H21:I21"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/assets/Test-Reporte_Elanco/Eficacia.xlsx
+++ b/src/assets/Test-Reporte_Elanco/Eficacia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catta\Documents\COMPSCI\repos\elanco-infome-imvixa\src\assets\Test-Reporte_Elanco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DB04BB-84DB-4CD4-91A0-2CB0D1AB5776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4342BE6-1230-4DA4-9615-1664DFB3F212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="47610" yWindow="5460" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
